--- a/StructureDefinition-profile-BodyStructure.xlsx
+++ b/StructureDefinition-profile-BodyStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="241">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6277916-06:00</t>
+    <t>2026-02-09T22:05:42.9926091-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,38 +426,149 @@
     <t>BodyStructure.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:excludedStructure</t>
+  </si>
+  <si>
+    <t>excludedStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.excludedStructure|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.excludedStructure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The anatomical location(s) or region(s) not occupied or represented by the specimen, lesion, or body structure.</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.excludedStructure` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:structure</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.structure|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.includedStructure.structure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code that represents the included structure.</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.structure` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
+Element `BodyStructure.includedStructure.structure` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:laterality</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.laterality|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.includedStructure.laterality from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code that represents the included structure laterality.</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.laterality` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
+Element `BodyStructure.includedStructure.laterality` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:bodyLandmarkOrientation</t>
+  </si>
+  <si>
+    <t>bodyLandmarkOrientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.includedStructure.bodyLandmarkOrientation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Body locations in relation to a specific body landmark (tatoo, scar, other body structure).</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:spatialReference</t>
+  </si>
+  <si>
+    <t>spatialReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.includedStructure.spatialReference from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ImagingSelection in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.spatialReference` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BodyStructure.includedStructure.spatialReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `BodyStructure.includedStructure.spatialReference` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+  </si>
+  <si>
+    <t>BodyStructure.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>BodyStructure.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -965,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -974,9 +1085,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.53125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -984,7 +1095,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1940,11 +2051,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -1959,17 +2070,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2006,16 +2115,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2033,7 +2140,7 @@
         <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -2050,11 +2157,13 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2067,26 +2176,24 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2134,7 +2241,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2143,13 +2250,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -2163,21 +2270,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -2186,18 +2295,20 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2246,7 +2357,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2255,19 +2366,19 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -2275,12 +2386,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2295,32 +2408,28 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2364,28 +2473,28 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -2393,12 +2502,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -2407,7 +2518,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -2416,19 +2527,19 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2454,13 +2565,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -2478,19 +2589,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -2499,20 +2610,22 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
       </c>
@@ -2521,7 +2634,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -2530,18 +2643,20 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -2566,13 +2681,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -2590,43 +2705,43 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2639,22 +2754,26 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -2678,13 +2797,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -2702,7 +2821,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2714,27 +2833,27 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2745,7 +2864,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -2757,17 +2876,15 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -2816,13 +2933,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -2831,24 +2948,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2859,32 +2976,38 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="R17" t="s" s="2">
         <v>80</v>
       </c>
@@ -2928,13 +3051,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -2943,24 +3066,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2968,7 +3091,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -2983,15 +3106,17 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3016,13 +3141,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3040,10 +3165,10 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3055,16 +3180,578 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>207</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-BodyStructure.xlsx
+++ b/StructureDefinition-profile-BodyStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9926091-06:00</t>
+    <t>2026-02-17T14:42:26.7401969-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,108 +450,39 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BodyStructure.extension:excludedStructure</t>
-  </si>
-  <si>
-    <t>excludedStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.excludedStructure|0.0.1-snapshot-3}
+    <t>BodyStructure.extension:includedStructure</t>
+  </si>
+  <si>
+    <t>includedStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for BodyStructure.excludedStructure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The anatomical location(s) or region(s) not occupied or represented by the specimen, lesion, or body structure.</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.excludedStructure` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>Cross-version extension for BodyStructure.includedStructure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The anatomical location(s) or region(s) of the specimen, lesion, or body structure.</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure` has is mapped to FHIR R4 element `BodyStructure`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>BodyStructure.extension:structure</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.structure|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BodyStructure.includedStructure.structure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Code that represents the included structure.</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.includedStructure.structure` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.structure` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
-  </si>
-  <si>
-    <t>BodyStructure.extension:laterality</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.laterality|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BodyStructure.includedStructure.laterality from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Code that represents the included structure laterality.</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.includedStructure.laterality` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.laterality` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
-  </si>
-  <si>
-    <t>BodyStructure.extension:bodyLandmarkOrientation</t>
-  </si>
-  <si>
-    <t>bodyLandmarkOrientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BodyStructure.includedStructure.bodyLandmarkOrientation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Body locations in relation to a specific body landmark (tatoo, scar, other body structure).</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
-  </si>
-  <si>
-    <t>BodyStructure.extension:spatialReference</t>
-  </si>
-  <si>
-    <t>spatialReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BodyStructure.includedStructure.spatialReference from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ImagingSelection in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.includedStructure.spatialReference` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `BodyStructure.includedStructure.spatialReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `BodyStructure.includedStructure.spatialReference` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>BodyStructure.extension:excludedStructure</t>
+  </si>
+  <si>
+    <t>excludedStructure</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.excludedStructure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.excludedStructure` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>BodyStructure.modifierExtension</t>
@@ -1076,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1085,9 +1016,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.53125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.01953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.63671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1095,7 +1026,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="116.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2167,7 +2098,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -2283,10 +2214,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -2298,16 +2229,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2386,46 +2317,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2473,7 +2404,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2482,13 +2413,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -2502,14 +2433,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -2527,20 +2456,18 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -2589,7 +2516,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2598,19 +2525,19 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -2621,11 +2548,9 @@
         <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>80</v>
       </c>
@@ -2634,34 +2559,38 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="R14" t="s" s="2">
         <v>80</v>
       </c>
@@ -2705,28 +2634,28 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -2734,46 +2663,44 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -2797,13 +2724,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -2821,39 +2748,39 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2864,7 +2791,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -2876,13 +2803,13 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2909,13 +2836,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -2933,13 +2860,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -2948,24 +2875,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2976,38 +2903,32 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q17" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3027,13 +2948,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3051,13 +2972,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3066,24 +2987,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3106,16 +3027,16 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3141,31 +3062,31 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3180,24 +3101,24 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3208,7 +3129,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3217,16 +3138,16 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3253,37 +3174,37 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -3292,24 +3213,24 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3317,10 +3238,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3329,16 +3250,16 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3365,13 +3286,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -3389,13 +3310,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -3404,354 +3325,16 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-BodyStructure.xlsx
+++ b/StructureDefinition-profile-BodyStructure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7401969-06:00</t>
+    <t>2026-02-20T11:59:20.7375297-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/BodyStructure|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/BodyStructure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>includedStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure}
 </t>
   </si>
   <si>
@@ -1026,7 +1026,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-BodyStructure.xlsx
+++ b/StructureDefinition-profile-BodyStructure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="229">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7375297-06:00</t>
+    <t>2026-02-21T13:36:54.136895-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/BodyStructure</t>
+    <t>http://hl7.org/fhir/StructureDefinition/BodyStructure|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,39 +450,65 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>BodyStructure.extension:includedStructure</t>
-  </si>
-  <si>
-    <t>includedStructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure}
+    <t>BodyStructure.extension:structure</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.structure|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for BodyStructure.includedStructure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The anatomical location(s) or region(s) of the specimen, lesion, or body structure.</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.includedStructure` has is mapped to FHIR R4 element `BodyStructure`, but has no comparisons.</t>
+    <t>Cross-version extension for BodyStructure.includedStructure.structure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code that represents the included structure.</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.structure` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>BodyStructure.extension:excludedStructure</t>
-  </si>
-  <si>
-    <t>excludedStructure</t>
-  </si>
-  <si>
-    <t>Cross-version extension for BodyStructure.excludedStructure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `BodyStructure.excludedStructure` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+    <t>BodyStructure.extension:laterality</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.laterality|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.includedStructure.laterality from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Code that represents the included structure laterality.</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.laterality` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
+  </si>
+  <si>
+    <t>BodyStructure.extension:bodyLandmarkOrientation</t>
+  </si>
+  <si>
+    <t>bodyLandmarkOrientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-BodyStructure.includedStructure.bodyLandmarkOrientation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for BodyStructure.includedStructure.bodyLandmarkOrientation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Body locations in relation to a specific body landmark (tatoo, scar, other body structure).</t>
+  </si>
+  <si>
+    <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation` has a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>BodyStructure.modifierExtension</t>
@@ -1007,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1016,9 +1042,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.01953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.53125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.59375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1026,7 +1052,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2101,7 +2127,7 @@
         <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
@@ -2217,7 +2243,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -2229,16 +2255,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2317,14 +2343,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2337,26 +2365,24 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2404,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2413,13 +2439,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -2433,14 +2459,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2453,22 +2479,26 @@
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -2516,7 +2546,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2528,16 +2558,16 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -2545,10 +2575,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2559,88 +2589,82 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
@@ -2649,13 +2673,13 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -2663,10 +2687,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2683,28 +2707,32 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="R15" t="s" s="2">
         <v>80</v>
       </c>
@@ -2724,13 +2752,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -2748,7 +2776,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2763,24 +2791,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2803,15 +2831,17 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -2836,13 +2866,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -2860,7 +2890,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2875,13 +2905,13 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>191</v>
@@ -2903,7 +2933,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -2912,10 +2942,10 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>193</v>
@@ -2948,7 +2978,7 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>195</v>
@@ -2978,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -2987,24 +3017,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3015,7 +3045,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3024,10 +3054,10 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>201</v>
@@ -3035,9 +3065,7 @@
       <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3062,13 +3090,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3086,13 +3114,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -3101,13 +3129,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>206</v>
@@ -3129,7 +3157,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3138,7 +3166,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>208</v>
@@ -3149,7 +3177,9 @@
       <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3204,7 +3234,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -3213,24 +3243,24 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3238,10 +3268,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3250,16 +3280,16 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3310,13 +3340,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -3325,16 +3355,128 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
